--- a/8조/4_TOOLS/LJM-OOD-REQ.01-요구사항목록-8조-웹메일시스템-배포용.xlsx
+++ b/8조/4_TOOLS/LJM-OOD-REQ.01-요구사항목록-8조-웹메일시스템-배포용.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2791250C-935B-467B-BF9A-2616FD976AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D080092-219D-4672-B14B-476448DA3E31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="10" r:id="rId1"/>
@@ -1308,10 +1308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LJM-REQ.01-SW요구사항-OOO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개발 상황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1967,6 +1963,10 @@
   </si>
   <si>
     <t>설계</t>
+  </si>
+  <si>
+    <t>LJM-REQ.01-SW요구사항-8조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2383,21 +2383,6 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2432,13 +2417,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2495,6 +2474,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2808,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2825,83 +2825,83 @@
       <c r="A1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="74" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:5" ht="33.6" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" ht="33.6" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="70" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+    </row>
+    <row r="4" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A4" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>539</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-    </row>
-    <row r="4" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A4" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="55" t="s">
+      <c r="C4" s="70" t="s">
         <v>540</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A5" s="73"/>
+      <c r="B5" s="49" t="s">
         <v>541</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="55" t="s">
+      <c r="C5" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+    </row>
+    <row r="6" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="49" t="s">
         <v>543</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-    </row>
-    <row r="6" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="55" t="s">
+      <c r="C6" s="70" t="s">
         <v>544</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>545</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:5" ht="102" customHeight="1">
       <c r="A7" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:5" ht="17.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="73" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -2918,78 +2918,78 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="57"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>528</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="D9" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>507</v>
-      </c>
-      <c r="E9" s="55" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="73"/>
+      <c r="B10" s="49" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="57"/>
-      <c r="B10" s="55" t="s">
+      <c r="C10" s="50" t="s">
         <v>531</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="D10" s="49" t="s">
+        <v>510</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="73"/>
+      <c r="B11" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>511</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="57"/>
-      <c r="B11" s="55" t="s">
+      <c r="C11" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="D11" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="73"/>
+      <c r="B12" s="49" t="s">
         <v>534</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>520</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="57"/>
-      <c r="B12" s="55" t="s">
+      <c r="C12" s="50" t="s">
         <v>535</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="D12" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="73"/>
+      <c r="B13" s="49" t="s">
         <v>536</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>523</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="57"/>
-      <c r="B13" s="55" t="s">
+      <c r="C13" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>538</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>517</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>494</v>
+      <c r="D13" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3030,241 +3030,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="D2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C4" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="49" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="48" t="s">
-        <v>509</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>514</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>516</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>518</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>521</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>524</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="D16" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>527</v>
-      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="51"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3"/>
@@ -3414,12 +3414,12 @@
       <c r="B43" s="16"/>
     </row>
     <row r="44" spans="1:4" ht="34.9" customHeight="1">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="16"/>
@@ -3511,7 +3511,7 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -3545,10 +3545,10 @@
         <v>326</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -3558,21 +3558,21 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="63">
+      <c r="C2" s="56">
         <v>0</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="68"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="33">
       <c r="A3" s="36" t="s">
@@ -3591,16 +3591,16 @@
         <v>335</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33">
@@ -3620,16 +3620,16 @@
         <v>335</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>349</v>
+        <v>454</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>348</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>498</v>
+        <v>492</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5">
@@ -3649,16 +3649,16 @@
         <v>330</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>498</v>
+        <v>455</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.5">
@@ -3672,47 +3672,47 @@
         <v>1</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>335</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>498</v>
+        <v>456</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="69">
+      <c r="C7" s="62">
         <v>0</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" ht="66">
       <c r="A8" s="36" t="s">
         <v>305</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" s="17">
         <v>3</v>
@@ -3724,16 +3724,16 @@
         <v>328</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>458</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>498</v>
+        <v>457</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="49.5">
@@ -3753,16 +3753,16 @@
         <v>328</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>498</v>
+        <v>458</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33">
@@ -3782,16 +3782,16 @@
         <v>328</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>498</v>
+        <v>459</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="49.5">
@@ -3811,16 +3811,16 @@
         <v>332</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I11" s="59" t="s">
-        <v>498</v>
+        <v>460</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="49.5">
@@ -3828,28 +3828,28 @@
         <v>309</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>328</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H12" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>498</v>
+        <v>461</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="49.5">
@@ -3869,16 +3869,16 @@
         <v>328</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I13" s="59" t="s">
-        <v>498</v>
+        <v>462</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33">
@@ -3898,16 +3898,16 @@
         <v>328</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I14" s="59" t="s">
-        <v>498</v>
+        <v>463</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="49.5">
@@ -3927,97 +3927,97 @@
         <v>328</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="G15" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I15" s="59" t="s">
-        <v>498</v>
+        <v>464</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33">
       <c r="A16" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>375</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>376</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>328</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H16" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I16" s="59" t="s">
-        <v>498</v>
+        <v>465</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="33">
       <c r="A17" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>377</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>378</v>
       </c>
       <c r="C17" s="17">
         <v>0.5</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>546</v>
+        <v>466</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="B18" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="C18" s="69">
+      <c r="C18" s="62">
         <v>0</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66" t="s">
-        <v>501</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72" t="s">
-        <v>499</v>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59" t="s">
+        <v>500</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="49.5">
@@ -4025,28 +4025,28 @@
         <v>313</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C19" s="17">
         <v>3</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>468</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I19" s="59" t="s">
-        <v>498</v>
+        <v>467</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="49.5">
@@ -4054,28 +4054,28 @@
         <v>314</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C20" s="17">
         <v>2</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H20" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>498</v>
+        <v>468</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="33">
@@ -4083,28 +4083,28 @@
         <v>315</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>498</v>
+        <v>469</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="49.5">
@@ -4112,166 +4112,166 @@
         <v>316</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C22" s="17">
         <v>2</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I22" s="59" t="s">
-        <v>498</v>
+        <v>470</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="49.5">
       <c r="A23" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C23" s="17">
         <v>3</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>498</v>
+        <v>471</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="49.5">
       <c r="A24" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>386</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>387</v>
       </c>
       <c r="C24" s="17">
         <v>2</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I24" s="59" t="s">
-        <v>498</v>
+        <v>472</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="33">
       <c r="A25" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>388</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>389</v>
       </c>
       <c r="C25" s="17">
         <v>0.5</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>498</v>
+        <v>473</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="33">
       <c r="A26" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>390</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>391</v>
       </c>
       <c r="C26" s="17">
         <v>0.5</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H26" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="I26" s="59" t="s">
-        <v>547</v>
+        <v>466</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="B27" s="58" t="s">
         <v>392</v>
       </c>
-      <c r="B27" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" s="69">
+      <c r="C27" s="62">
         <v>0</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="H27" s="73"/>
-      <c r="I27" s="72"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="H27" s="66"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="36" t="s">
@@ -4284,19 +4284,19 @@
         <v>1</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>335</v>
       </c>
       <c r="F28" s="34"/>
-      <c r="G28" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H28" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I28" s="59" t="s">
+      <c r="G28" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I28" s="52" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4311,19 +4311,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>335</v>
       </c>
       <c r="F29" s="34"/>
-      <c r="G29" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I29" s="59" t="s">
+      <c r="G29" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I29" s="52" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4332,26 +4332,26 @@
         <v>319</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C30" s="17">
         <v>5</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>330</v>
       </c>
       <c r="F30" s="34"/>
-      <c r="G30" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>511</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>548</v>
+      <c r="G30" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="33">
@@ -4359,28 +4359,28 @@
         <v>320</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C31" s="17">
         <v>5</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="62" t="s">
-        <v>523</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>549</v>
+        <v>474</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="33">
@@ -4388,28 +4388,28 @@
         <v>321</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="17">
         <v>5</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H32" s="62" t="s">
-        <v>523</v>
-      </c>
-      <c r="I32" s="59" t="s">
-        <v>549</v>
+        <v>475</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="49.5">
@@ -4417,28 +4417,28 @@
         <v>322</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" s="17">
         <v>5</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>523</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>549</v>
+        <v>476</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="49.5">
@@ -4446,28 +4446,28 @@
         <v>323</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C34" s="17">
         <v>5</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>478</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H34" s="62" t="s">
-        <v>523</v>
-      </c>
-      <c r="I34" s="59" t="s">
-        <v>549</v>
+        <v>477</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4481,20 +4481,20 @@
         <v>8</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>335</v>
       </c>
       <c r="F35" s="34"/>
-      <c r="G35" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I35" s="59" t="s">
-        <v>498</v>
+      <c r="G35" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4508,44 +4508,44 @@
         <v>2</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>335</v>
       </c>
       <c r="F36" s="34"/>
-      <c r="G36" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H36" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I36" s="59" t="s">
+      <c r="G36" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I36" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="B37" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="C37" s="69">
+      <c r="C37" s="62">
         <v>0</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="63" t="s">
-        <v>500</v>
-      </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="F37" s="58"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>290</v>
@@ -4554,25 +4554,25 @@
         <v>3</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>335</v>
       </c>
       <c r="F38" s="34"/>
-      <c r="G38" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H38" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I38" s="59" t="s">
+      <c r="G38" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I38" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="33">
       <c r="A39" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>291</v>
@@ -4581,25 +4581,25 @@
         <v>-1</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F39" s="34"/>
-      <c r="G39" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I39" s="59" t="s">
+      <c r="G39" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I39" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>292</v>
@@ -4608,54 +4608,54 @@
         <v>3</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>335</v>
       </c>
       <c r="F40" s="34"/>
-      <c r="G40" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I40" s="59" t="s">
+      <c r="G40" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I40" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="49.5">
       <c r="A41" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>404</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>405</v>
       </c>
       <c r="C41" s="17">
         <v>0.5</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>330</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>520</v>
-      </c>
-      <c r="I41" s="59" t="s">
-        <v>549</v>
+        <v>478</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>293</v>
@@ -4664,25 +4664,25 @@
         <v>-1</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F42" s="34"/>
-      <c r="G42" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I42" s="59" t="s">
+      <c r="G42" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I42" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="33">
       <c r="A43" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>294</v>
@@ -4691,25 +4691,25 @@
         <v>5</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F43" s="34"/>
-      <c r="G43" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I43" s="59" t="s">
+      <c r="G43" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I43" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="33">
       <c r="A44" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>295</v>
@@ -4718,25 +4718,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>335</v>
       </c>
       <c r="F44" s="34"/>
-      <c r="G44" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H44" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I44" s="59" t="s">
+      <c r="G44" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I44" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>296</v>
@@ -4745,25 +4745,25 @@
         <v>2</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>335</v>
       </c>
       <c r="F45" s="34"/>
-      <c r="G45" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I45" s="59" t="s">
+      <c r="G45" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I45" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>297</v>
@@ -4772,25 +4772,25 @@
         <v>5</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>335</v>
       </c>
       <c r="F46" s="34"/>
-      <c r="G46" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I46" s="59" t="s">
+      <c r="G46" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I46" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>298</v>
@@ -4799,25 +4799,25 @@
         <v>5</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>330</v>
       </c>
       <c r="F47" s="34"/>
-      <c r="G47" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>511</v>
-      </c>
-      <c r="I47" s="59" t="s">
-        <v>498</v>
+      <c r="G47" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>299</v>
@@ -4829,22 +4829,22 @@
         <v>20</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F48" s="34"/>
-      <c r="G48" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I48" s="59" t="s">
+      <c r="G48" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I48" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>300</v>
@@ -4856,506 +4856,506 @@
         <v>21</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I49" s="52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="C50" s="62">
+        <v>0</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I49" s="59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="64" t="s">
-        <v>414</v>
-      </c>
-      <c r="B50" s="65" t="s">
-        <v>415</v>
-      </c>
-      <c r="C50" s="69">
-        <v>0</v>
-      </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="63" t="s">
-        <v>501</v>
-      </c>
-      <c r="F50" s="65"/>
-      <c r="G50" s="69" t="s">
-        <v>550</v>
-      </c>
-      <c r="H50" s="75" t="s">
-        <v>520</v>
-      </c>
-      <c r="I50" s="76"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="62" t="s">
+        <v>549</v>
+      </c>
+      <c r="H50" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="I50" s="69"/>
     </row>
     <row r="51" spans="1:9" ht="33">
       <c r="A51" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="34" t="s">
         <v>416</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>417</v>
       </c>
       <c r="C51" s="17">
         <v>3</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H51" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I51" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I51" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="B52" s="34" t="s">
         <v>418</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>419</v>
       </c>
       <c r="C52" s="17">
         <v>3</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H52" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I52" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H52" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I52" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="33">
       <c r="A53" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="B53" s="37" t="s">
         <v>420</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>421</v>
       </c>
       <c r="C53" s="17">
         <v>3</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H53" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I53" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H53" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I53" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="49.5">
       <c r="A54" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B54" s="34" t="s">
         <v>422</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>423</v>
       </c>
       <c r="C54" s="17">
         <v>1</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H54" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I54" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H54" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I54" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="B55" s="34" t="s">
         <v>424</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="C55" s="17">
         <v>2</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H55" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I55" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H55" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I55" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="B56" s="34" t="s">
         <v>426</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>427</v>
       </c>
       <c r="C56" s="17">
         <v>0.5</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H56" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I56" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H56" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I56" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="B57" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="B57" s="65" t="s">
-        <v>429</v>
-      </c>
-      <c r="C57" s="69">
+      <c r="C57" s="62">
         <v>0</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="63" t="s">
-        <v>501</v>
-      </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="69" t="s">
-        <v>551</v>
-      </c>
-      <c r="H57" s="75" t="s">
-        <v>520</v>
-      </c>
-      <c r="I57" s="76" t="s">
-        <v>494</v>
+      <c r="D57" s="58"/>
+      <c r="E57" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="F57" s="58"/>
+      <c r="G57" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="H57" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="I57" s="69" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="33">
       <c r="A58" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58" s="37" t="s">
         <v>430</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>431</v>
       </c>
       <c r="C58" s="17">
         <v>1</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H58" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I58" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H58" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I58" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B59" s="34" t="s">
         <v>432</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>433</v>
       </c>
       <c r="C59" s="17">
         <v>1</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H59" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I59" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H59" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I59" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="33">
       <c r="A60" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" s="34" t="s">
         <v>434</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>435</v>
       </c>
       <c r="C60" s="17">
         <v>2</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H60" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I60" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H60" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I60" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="49.5">
       <c r="A61" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="B61" s="34" t="s">
         <v>436</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>437</v>
       </c>
       <c r="C61" s="17">
         <v>2</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H61" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I61" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I61" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="33">
       <c r="A62" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B62" s="34" t="s">
         <v>438</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>439</v>
       </c>
       <c r="C62" s="17">
         <v>3</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H62" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I62" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="33">
       <c r="A63" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B63" s="34" t="s">
         <v>440</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>441</v>
       </c>
       <c r="C63" s="17">
         <v>1</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F63" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="H63" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I63" s="60" t="s">
-        <v>494</v>
+        <v>549</v>
+      </c>
+      <c r="H63" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="33">
       <c r="A64" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="B64" s="34" t="s">
         <v>442</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>443</v>
       </c>
       <c r="C64" s="17">
         <v>5</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H64" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I64" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H64" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I64" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="33">
       <c r="A65" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="B65" s="34" t="s">
         <v>444</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>445</v>
       </c>
       <c r="C65" s="17">
         <v>3</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F65" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="H65" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="I65" s="60" t="s">
-        <v>494</v>
+        <v>550</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I65" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="33">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="B66" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="B66" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="C66" s="69">
+      <c r="C66" s="62">
         <v>0</v>
       </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="63" t="s">
-        <v>501</v>
-      </c>
-      <c r="F66" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="G66" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="H66" s="75" t="s">
-        <v>517</v>
-      </c>
-      <c r="I66" s="76" t="s">
-        <v>494</v>
+      <c r="D66" s="58"/>
+      <c r="E66" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="F66" s="58" t="s">
+        <v>488</v>
+      </c>
+      <c r="G66" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="H66" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="I66" s="69" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="49.5">
       <c r="A67" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B67" s="34" t="s">
         <v>448</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>449</v>
       </c>
       <c r="C67" s="17">
         <v>3</v>
@@ -5364,27 +5364,27 @@
         <v>21</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H67" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="I67" s="60" t="s">
-        <v>495</v>
+        <v>348</v>
+      </c>
+      <c r="H67" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="33">
       <c r="A68" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="34" t="s">
         <v>450</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>451</v>
       </c>
       <c r="C68" s="17">
         <v>3</v>
@@ -5393,48 +5393,48 @@
         <v>21</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H68" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="I68" s="60" t="s">
-        <v>496</v>
+        <v>348</v>
+      </c>
+      <c r="H68" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="I68" s="53" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="33">
       <c r="A69" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B69" s="34" t="s">
         <v>452</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>453</v>
       </c>
       <c r="C69" s="17">
         <v>2</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="H69" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="I69" s="60" t="s">
-        <v>494</v>
+        <v>348</v>
+      </c>
+      <c r="H69" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="I69" s="53" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -7808,7 +7808,7 @@
         <v>326</v>
       </c>
       <c r="F1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7819,7 +7819,7 @@
         <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7830,7 +7830,7 @@
         <v>329</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7841,7 +7841,7 @@
         <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7852,7 +7852,7 @@
         <v>333</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7863,7 +7863,7 @@
         <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7874,7 +7874,7 @@
         <v>337</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
